--- a/dist/document/dest/2020/10/doctors/2.xlsx
+++ b/dist/document/dest/2020/10/doctors/2.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>180</v>
       </c>
-      <c r="C2" s="1">
-        <v>1188000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>203</v>
       </c>
-      <c r="C3" s="1">
-        <v>1674750</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>2135</v>
       </c>
-      <c r="C4" s="1">
-        <v>9821000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
-        <v>707500</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>450</v>
       </c>
-      <c r="C6" s="1">
-        <v>8280000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
-        <v>182000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>884</v>
       </c>
-      <c r="C8" s="1">
-        <v>11668800</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>997</v>
       </c>
-      <c r="C9" s="1">
-        <v>16450500</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>5113</v>
       </c>
-      <c r="C10" s="1">
-        <v>33183370</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>240</v>
       </c>
-      <c r="C11" s="1">
-        <v>4752000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>1305</v>
       </c>
-      <c r="C12" s="1">
-        <v>2401200</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>615</v>
       </c>
-      <c r="C13" s="1">
-        <v>4735500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>15</v>
       </c>
-      <c r="C14" s="1">
-        <v>173250</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>36</v>
       </c>
-      <c r="C15" s="1">
-        <v>12938400</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>1348</v>
       </c>
-      <c r="C16" s="1">
-        <v>22242000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>7</v>
       </c>
-      <c r="C17" s="1">
-        <v>100100</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>471</v>
       </c>
-      <c r="C18" s="1">
-        <v>7149780</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="1">
-        <v>612000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>75</v>
       </c>
-      <c r="C20" s="1">
-        <v>1897500</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -614,7 +557,7 @@
         <v>14095</v>
       </c>
       <c r="C21" s="1">
-        <v>140157650</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/2.xlsx
+++ b/dist/document/dest/2020/10/doctors/2.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,170 +399,1470 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Acetium (Lozenge - quit smoking)</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B2" s="1">
-        <v>180</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>203</v>
+        <v>120</v>
+      </c>
+      <c r="C3" s="1">
+        <v>778800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Bentarcin (Thymomodulin 80mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>2135</v>
+        <v>150</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1237500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Berodual 10ml (Pressurized inhalation)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123750</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>450</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>247500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Celebrex (Celecoxib 200mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>123750</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>884</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>123750</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Egodinir (Cefdinir 300mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>997</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>247500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Elpertone (Erdosteine 300mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B10" s="1">
-        <v>5113</v>
+        <v>60</v>
+      </c>
+      <c r="C10" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>240</v>
+        <v>90</v>
+      </c>
+      <c r="C11" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Medovent (Ambroxol 30mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>1305</v>
+        <v>120</v>
+      </c>
+      <c r="C12" s="1">
+        <v>552000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Montelair (Montelukast 10mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>615</v>
+        <v>120</v>
+      </c>
+      <c r="C13" s="1">
+        <v>552000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Prazogood (Esomeprazole 40mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>15</v>
+        <v>88</v>
+      </c>
+      <c r="C14" s="1">
+        <v>404800</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="C15" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Sodinir (Cefdinir 300mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>1348</v>
+        <v>120</v>
+      </c>
+      <c r="C16" s="1">
+        <v>552000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Sotig (Esomeprazole 40mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>7</v>
+        <v>1653</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7603800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>471</v>
+        <v>105</v>
+      </c>
+      <c r="C18" s="1">
+        <v>483000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Symbicort 60 Dos (Budesonide, formoterol)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>345000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Virclath (Clarithromycin 500mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>75</v>
+        <v>180</v>
+      </c>
+      <c r="C20" s="1">
+        <v>828000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
+        <v>Benzatique (Nebivolol 5mg)</v>
+      </c>
+      <c r="B21" s="1">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>207900</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Benzatique (Nebivolol 5mg)</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1">
+        <v>97020</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Berodual 10ml (Pressurized inhalation)</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>141500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Berodual 10ml (Pressurized inhalation)</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>424500</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+      </c>
+      <c r="B25" s="1">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+      </c>
+      <c r="B26" s="1">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1104000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+      </c>
+      <c r="B27" s="1">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+      </c>
+      <c r="B28" s="1">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+      </c>
+      <c r="B29" s="1">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+      </c>
+      <c r="B30" s="1">
+        <v>270</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4968000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+      </c>
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+      </c>
+      <c r="B33" s="1">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1104000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Bonsartine (Losartan 25mg)</v>
+      </c>
+      <c r="B34" s="1">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1">
+        <v>131100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Celebrex (Celecoxib 200mg)</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Celebrex (Celecoxib 200mg)</v>
+      </c>
+      <c r="B36" s="1">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Celebrex (Celecoxib 200mg)</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>60</v>
+      </c>
+      <c r="C39" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>157</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2072400</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>690</v>
+      </c>
+      <c r="C43" s="1">
+        <v>9108000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>164</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2164800</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>60</v>
+      </c>
+      <c r="C45" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Diamicron MR 60mg (Gliclazide)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>120</v>
+      </c>
+      <c r="C47" s="1">
+        <v>789600</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1">
+        <v>392700</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>60</v>
+      </c>
+      <c r="C49" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>225</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1460250</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>270</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1752300</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>135</v>
+      </c>
+      <c r="C52" s="1">
+        <v>876150</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>225</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1460250</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>267</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1732830</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>135</v>
+      </c>
+      <c r="C55" s="1">
+        <v>876150</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3690</v>
+      </c>
+      <c r="C56" s="1">
+        <v>23948100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>292</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1895080</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>470</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3050300</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>157</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1018930</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>14</v>
+      </c>
+      <c r="C60" s="1">
+        <v>146300</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Glucophage 1000mg (Metformin)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>120</v>
+      </c>
+      <c r="C61" s="1">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>14</v>
+      </c>
+      <c r="C62" s="1">
+        <v>49910</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>30</v>
+      </c>
+      <c r="C64" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>30</v>
+      </c>
+      <c r="C65" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1">
+        <v>277200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>60</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1188000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>118</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2336400</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>60</v>
+      </c>
+      <c r="C70" s="1">
+        <v>448800</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <v>81075</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>90</v>
+      </c>
+      <c r="C73" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45</v>
+      </c>
+      <c r="C74" s="1">
+        <v>82800</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>90</v>
+      </c>
+      <c r="C75" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>120</v>
+      </c>
+      <c r="C76" s="1">
+        <v>220800</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>90</v>
+      </c>
+      <c r="C77" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>675</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1242000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>90</v>
+      </c>
+      <c r="C79" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>156</v>
+      </c>
+      <c r="C80" s="1">
+        <v>287040</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45</v>
+      </c>
+      <c r="C81" s="1">
+        <v>82800</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B82" s="1">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1">
+        <v>29680</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>60</v>
+      </c>
+      <c r="C83" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>15</v>
+      </c>
+      <c r="C84" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>30</v>
+      </c>
+      <c r="C85" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>60</v>
+      </c>
+      <c r="C86" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45</v>
+      </c>
+      <c r="C87" s="1">
+        <v>346500</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>375</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2887500</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>15</v>
+      </c>
+      <c r="C89" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>67</v>
+      </c>
+      <c r="C90" s="1">
+        <v>515900</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>15</v>
+      </c>
+      <c r="C91" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>30</v>
+      </c>
+      <c r="C92" s="1">
+        <v>201300</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>15</v>
+      </c>
+      <c r="C93" s="1">
+        <v>60375</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>10</v>
+      </c>
+      <c r="C94" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Pangelong (Rebamipide 100mg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>30</v>
+      </c>
+      <c r="C95" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>60</v>
+      </c>
+      <c r="C96" s="1">
+        <v>200100</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>15</v>
+      </c>
+      <c r="C97" s="1">
+        <v>130350</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>359400</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1">
+        <v>718800</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>359400</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>718800</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>359400</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>19</v>
+      </c>
+      <c r="C103" s="1">
+        <v>6828600</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>359400</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1078200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1">
+        <v>718800</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>60</v>
+      </c>
+      <c r="C107" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>150</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2475000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>90</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1485000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>60</v>
+      </c>
+      <c r="C110" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>75</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1237500</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1442</v>
+      </c>
+      <c r="C112" s="1">
+        <v>23793000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>60</v>
+      </c>
+      <c r="C113" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>134</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2211000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>44</v>
+      </c>
+      <c r="C115" s="1">
+        <v>726000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>30</v>
+      </c>
+      <c r="C116" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45</v>
+      </c>
+      <c r="C117" s="1">
+        <v>683100</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45</v>
+      </c>
+      <c r="C118" s="1">
+        <v>683100</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45</v>
+      </c>
+      <c r="C119" s="1">
+        <v>683100</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>375</v>
+      </c>
+      <c r="C120" s="1">
+        <v>5692500</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45</v>
+      </c>
+      <c r="C121" s="1">
+        <v>683100</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45</v>
+      </c>
+      <c r="C122" s="1">
+        <v>683100</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>60</v>
+      </c>
+      <c r="C124" s="1">
+        <v>117300</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>20</v>
+      </c>
+      <c r="C125" s="1">
+        <v>39100</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B126" s="1">
+        <v>30</v>
+      </c>
+      <c r="C126" s="1">
+        <v>102600</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Vinsalamin (Mesalamin 400mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>30</v>
+      </c>
+      <c r="C127" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>30</v>
+      </c>
+      <c r="C128" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>120</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3036000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>30</v>
+      </c>
+      <c r="C130" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>30</v>
+      </c>
+      <c r="C131" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>ZYTOVYRIN (EZETIMIBE 10MG)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>60</v>
+      </c>
+      <c r="C133" s="1">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B21" s="1">
-        <v>14095</v>
-      </c>
-      <c r="C21" s="1">
-        <v>NaN</v>
+      <c r="B134" s="1">
+        <v>17218</v>
+      </c>
+      <c r="C134" s="1">
+        <v>162146364</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C134"/>
   </ignoredErrors>
 </worksheet>
 </file>